--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_9_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_9_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[59.78151904513638, 67.04931152485]</t>
+          <t>[59.82869319534586, 67.00213737464051]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.08582848003583, 52.12169291776756]</t>
+          <t>[47.08490829051013, 52.12261310729326]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[58.434522760873534, 69.06908409428203]</t>
+          <t>[58.40895593139782, 69.09465092375774]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.936449783631296, 52.48125352953665]</t>
+          <t>[46.93721128027376, 52.48049203289419]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_9_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_9_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[59.82869319534586, 67.00213737464051]</t>
+          <t>[59.79409876386987, 67.0367318061165]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.08490829051013, 52.12261310729326]</t>
+          <t>[47.085097765929554, 52.122423631873836]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[58.40895593139782, 69.09465092375774]</t>
+          <t>[58.59172686865503, 68.91187998650054]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.93721128027376, 52.48049203289419]</t>
+          <t>[46.93468883783631, 52.483014475331636]</t>
         </is>
       </c>
       <c r="U3" t="n">
